--- a/src/main/resources/jxls_templates/orderDBatchExport.xlsx
+++ b/src/main/resources/jxls_templates/orderDBatchExport.xlsx
@@ -27,8 +27,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="M3")
-jx:each(items="rows", var="page", lastCell="M3", multisheet="sheetNames")
+          <t xml:space="preserve">jx:area(lastCell="O3")
+jx:each(items="rows", var="page", lastCell="O3", multisheet="sheetNames")
 </t>
         </r>
       </text>
@@ -41,12 +41,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="page.leftDatas" var="row" lastCell="F3")
+          <t xml:space="preserve">jx:each(items="page.leftDatas" var="row" lastCell="G3")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="page.leftDatas" var="row" lastCell="M3")
+          <t xml:space="preserve">jx:each(items="page.rightDatas" var="row" lastCell="O3")
 </t>
         </r>
       </text>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>委外订单订货清单</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>${row.dPlanDate}</t>
+  </si>
+  <si>
+    <t>${row.cOrderNo}</t>
   </si>
   <si>
     <t>${row.iQty}</t>
@@ -1072,26 +1075,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5555555555556" defaultRowHeight="25" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="23.6666666666667" defaultRowHeight="25" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="4.77777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7777777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.2222222222222" style="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44444444444444" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77777777777778" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5555555555556" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7777777777778" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.2222222222222" style="1" customWidth="1"/>
-    <col min="12" max="13" width="6" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="16.5555555555556" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1111111111111" style="1" customWidth="1"/>
+    <col min="6" max="7" width="6.88888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44444444444444" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77777777777778" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1111111111111" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5555555555556" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1111111111111" style="1" customWidth="1"/>
+    <col min="14" max="15" width="6.88888888888889" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="23.6666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:1">
@@ -1102,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:13">
+    <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1121,29 +1126,35 @@
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <pageMargins left="0.196527777777778" right="0.354166666666667" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/src/main/resources/jxls_templates/orderDBatchExport.xlsx
+++ b/src/main/resources/jxls_templates/orderDBatchExport.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9564"/>
+    <workbookView windowWidth="22368" windowHeight="9564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -63,8 +64,58 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>谢亮亮</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">jx:area(lastCell="G11")
+jx:each(items="barcoderows", var="page", lastCell="G11", multisheet="barcodesheetNames")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell="G11")
+jx:each(items="page.barcodeRecords1" var="row1" lastCell="G11")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(items="row1.row1" var="row" lastCell="G11")
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>委外订单订货清单</t>
   </si>
@@ -88,6 +139,51 @@
   </si>
   <si>
     <t>${row.cVersion}</t>
+  </si>
+  <si>
+    <t>委外现品票</t>
+  </si>
+  <si>
+    <t>客户部番</t>
+  </si>
+  <si>
+    <t>部品名称</t>
+  </si>
+  <si>
+    <t>${row.cInvName1}</t>
+  </si>
+  <si>
+    <t>规格型号</t>
+  </si>
+  <si>
+    <t>${row.cInvStd}</t>
+  </si>
+  <si>
+    <t>送货日期</t>
+  </si>
+  <si>
+    <t>供应商名称</t>
+  </si>
+  <si>
+    <t>${row.cVenName}</t>
+  </si>
+  <si>
+    <t>收货地点</t>
+  </si>
+  <si>
+    <t>${row.cAddress}</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>订单日期</t>
+  </si>
+  <si>
+    <t>${row.dOrderDate}</t>
+  </si>
+  <si>
+    <t>订单号</t>
   </si>
 </sst>
 </file>
@@ -100,9 +196,24 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -260,12 +371,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="18"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -464,12 +585,133 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,10 +820,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,141 +832,198 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1077,77 +1376,77 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6666666666667" defaultRowHeight="25" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="5.77777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1111111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1111111111111" style="1" customWidth="1"/>
-    <col min="6" max="7" width="6.88888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44444444444444" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.77777777777778" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1111111111111" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5555555555556" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1111111111111" style="1" customWidth="1"/>
-    <col min="14" max="15" width="6.88888888888889" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="23.6666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77777777777778" style="20" customWidth="1"/>
+    <col min="2" max="2" width="18.1111111111111" style="20" customWidth="1"/>
+    <col min="3" max="3" width="23.6666666666667" style="20" customWidth="1"/>
+    <col min="4" max="4" width="14.5555555555556" style="20" customWidth="1"/>
+    <col min="5" max="5" width="18.1111111111111" style="20" customWidth="1"/>
+    <col min="6" max="7" width="6.88888888888889" style="20" customWidth="1"/>
+    <col min="8" max="8" width="9.44444444444444" style="20" customWidth="1"/>
+    <col min="9" max="9" width="5.77777777777778" style="20" customWidth="1"/>
+    <col min="10" max="10" width="18.1111111111111" style="20" customWidth="1"/>
+    <col min="11" max="11" width="23.6666666666667" style="20" customWidth="1"/>
+    <col min="12" max="12" width="14.5555555555556" style="20" customWidth="1"/>
+    <col min="13" max="13" width="18.1111111111111" style="20" customWidth="1"/>
+    <col min="14" max="15" width="6.88888888888889" style="20" customWidth="1"/>
+    <col min="16" max="16384" width="23.6666666666667" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" spans="1:1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="20"/>
     </row>
     <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1161,4 +1460,182 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="2" max="3" width="8.88888888888889" style="2"/>
+    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" ht="60" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" customFormat="1" ht="7" customHeight="1" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
+      <c r="A7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
+      <c r="A8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
+      <c r="A9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="63" customHeight="1" spans="1:7">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="F4:G5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/main/resources/jxls_templates/orderDBatchExport.xlsx
+++ b/src/main/resources/jxls_templates/orderDBatchExport.xlsx
@@ -67,20 +67,20 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>谢亮亮</author>
+    <author>李涛</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="12"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">jx:area(lastCell="G11")
-jx:each(items="barcoderows", var="page", lastCell="G11", multisheet="barcodesheetNames")
-</t>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell="S56")
+jx:each(items="rows2", var="page", lastCell="S56", multisheet="sheetNames2")</t>
         </r>
       </text>
     </comment>
@@ -88,25 +88,392 @@
       <text>
         <r>
           <rPr>
-            <sz val="12"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:area(lastCell="G11")
-jx:each(items="page.barcodeRecords1" var="row1" lastCell="G11")</t>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.list1" var="row" lastCell="I14")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
+    <comment ref="K2" authorId="0">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="row1.row1" var="row" lastCell="G11")
+          <t>jx:each(items="page.list2" var="row" lastCell="S14")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="H7" src="row.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="R7" src="row.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="G13" src="row.img") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="Q13" src="row.img") imageType="jpeg"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.list3" var="row" lastCell="I28")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.list4" var="row" lastCell="S28")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="H21" src="row.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="R21" src="row.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="G27" src="row.img") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="Q27" src="row.img") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.list5" var="row" lastCell="I42")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.list6" var="row" lastCell="S42")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="H35" src="row.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="R35" src="row.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="G41" src="row.img") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="Q41" src="row.img") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.list7" var="row" lastCell="I56")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.list8" var="row" lastCell="S56")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="H49" src="row.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="R49" src="row.img2") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="G55" src="row.img") imageType="jpeg"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="Q55" src="row.img") imageType="jpeg"</t>
         </r>
       </text>
     </comment>
@@ -115,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="23">
   <si>
     <t>委外订单订货清单</t>
   </si>
@@ -141,7 +508,7 @@
     <t>${row.cVersion}</t>
   </si>
   <si>
-    <t>委外现品票</t>
+    <t>采购现品票</t>
   </si>
   <si>
     <t>客户部番</t>
@@ -190,13 +557,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,15 +573,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="22"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -371,21 +732,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="16"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="18"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -585,27 +947,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,6 +969,39 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -653,35 +1033,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -696,22 +1047,81 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -820,10 +1230,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,33 +1242,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,162 +1281,186 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1376,77 +1813,78 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6666666666667" defaultRowHeight="25" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="5.77777777777778" style="20" customWidth="1"/>
-    <col min="2" max="2" width="18.1111111111111" style="20" customWidth="1"/>
-    <col min="3" max="3" width="23.6666666666667" style="20" customWidth="1"/>
-    <col min="4" max="4" width="14.5555555555556" style="20" customWidth="1"/>
-    <col min="5" max="5" width="18.1111111111111" style="20" customWidth="1"/>
-    <col min="6" max="7" width="6.88888888888889" style="20" customWidth="1"/>
-    <col min="8" max="8" width="9.44444444444444" style="20" customWidth="1"/>
-    <col min="9" max="9" width="5.77777777777778" style="20" customWidth="1"/>
-    <col min="10" max="10" width="18.1111111111111" style="20" customWidth="1"/>
-    <col min="11" max="11" width="23.6666666666667" style="20" customWidth="1"/>
-    <col min="12" max="12" width="14.5555555555556" style="20" customWidth="1"/>
-    <col min="13" max="13" width="18.1111111111111" style="20" customWidth="1"/>
-    <col min="14" max="15" width="6.88888888888889" style="20" customWidth="1"/>
-    <col min="16" max="16384" width="23.6666666666667" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.77777777777778" style="29" customWidth="1"/>
+    <col min="2" max="2" width="18.1111111111111" style="29" customWidth="1"/>
+    <col min="3" max="3" width="23.6666666666667" style="29" customWidth="1"/>
+    <col min="4" max="4" width="14.5555555555556" style="29" customWidth="1"/>
+    <col min="5" max="5" width="18.1111111111111" style="29" customWidth="1"/>
+    <col min="6" max="7" width="6.88888888888889" style="29" customWidth="1"/>
+    <col min="8" max="8" width="9.44444444444444" style="29" customWidth="1"/>
+    <col min="9" max="9" width="5.77777777777778" style="29" customWidth="1"/>
+    <col min="10" max="10" width="18.1111111111111" style="29" customWidth="1"/>
+    <col min="11" max="11" width="23.6666666666667" style="29" customWidth="1"/>
+    <col min="12" max="12" width="14.5555555555556" style="29" customWidth="1"/>
+    <col min="13" max="13" width="18.1111111111111" style="29" customWidth="1"/>
+    <col min="14" max="15" width="6.88888888888889" style="29" customWidth="1"/>
+    <col min="16" max="16384" width="23.6666666666667" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1" spans="1:1">
-      <c r="A1" s="20"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:1">
-      <c r="A2" s="20" t="s">
+    <row r="1" s="29" customFormat="1" ht="12" customHeight="1" spans="1:1">
+      <c r="A1" s="29"/>
+    </row>
+    <row r="2" s="29" customFormat="1" customHeight="1" spans="1:1">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="20" t="s">
+    <row r="3" s="29" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1465,173 +1903,1439 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="2" max="3" width="8.88888888888889" style="2"/>
-    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="9.44444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9.22222222222222" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.44444444444444" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.4444444444444" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.2222222222222" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.44444444444444" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.22222222222222" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.8888888888889" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3333333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="2.22222222222222" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="2.22222222222222" style="1" customWidth="1"/>
+    <col min="20" max="20" width="3.77777777777778" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" customWidth="1"/>
+    <col min="22" max="22" width="2.44444444444444" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2"/>
-    </row>
-    <row r="2" ht="60" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="13.95" customHeight="1" spans="1:1">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" customFormat="1" ht="7" customHeight="1" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="24"/>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="24"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="22.8" customHeight="1" spans="1:19">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
+      <c r="H3" s="6"/>
+      <c r="I3" s="25"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="25"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:19">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
-      <c r="A5" s="10" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="K4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="37.8" customHeight="1" spans="1:19">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="21"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="1"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="45.6" customHeight="1" spans="1:19">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
-      <c r="A6" s="10" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="21"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="30.6" customHeight="1" spans="1:19">
+      <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="21"/>
+      <c r="K7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="21"/>
+      <c r="P7" s="15"/>
+      <c r="S7" s="21"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:19">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
+      <c r="A9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="K9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="23"/>
+      <c r="N9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="19"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
+      <c r="A10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="K10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="19"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
+      <c r="A11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="K11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="23"/>
+      <c r="N11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="19"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="9.6" customHeight="1" spans="1:19">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="K12" s="15"/>
+      <c r="S12" s="21"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="46.2" customHeight="1" spans="1:19">
+      <c r="A13" s="15"/>
+      <c r="B13" s="1"/>
+      <c r="I13" s="21"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="1"/>
+      <c r="S13" s="21"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="21" customHeight="1" spans="1:19">
+      <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
-      <c r="A7" s="10" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="K14" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="28"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="4" customHeight="1"/>
+    <row r="16" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="24"/>
+      <c r="K16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="24"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:19">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="25"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="25"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="12.6" customHeight="1" spans="1:19">
+      <c r="A18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="K18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="10"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="37.8" customHeight="1" spans="1:19">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="1"/>
+      <c r="I19" s="21"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="1"/>
+      <c r="S19" s="21"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="45.6" customHeight="1" spans="1:19">
+      <c r="A20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="15"/>
+      <c r="I20" s="21"/>
+      <c r="K20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="15"/>
+      <c r="S20" s="21"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="30.6" customHeight="1" spans="1:19">
+      <c r="A21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="15"/>
+      <c r="I21" s="21"/>
+      <c r="K21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="21"/>
+      <c r="P21" s="15"/>
+      <c r="S21" s="21"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="13.65" customHeight="1" spans="1:19">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
+      <c r="A23" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B23" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
-      <c r="A8" s="10" t="s">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="K23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="23"/>
+      <c r="N23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="19"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
+      <c r="A24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E24" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:7">
-      <c r="A9" s="13" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="K24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="19"/>
+      <c r="N24" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="19"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
+      <c r="A25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B25" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E25" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="63" customHeight="1" spans="1:7">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="17" t="s">
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="K25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="23"/>
+      <c r="N25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="19"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="9.6" customHeight="1" spans="1:19">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="10"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="51" customHeight="1" spans="1:19">
+      <c r="A27" s="15"/>
+      <c r="B27" s="1"/>
+      <c r="I27" s="21"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="1"/>
+      <c r="S27" s="21"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="21" customHeight="1" spans="1:19">
+      <c r="A28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="K28" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="14"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="4" customHeight="1"/>
+    <row r="30" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="24"/>
+      <c r="K30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="24"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:19">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="25"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="25"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:19">
+      <c r="A32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="K32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="10"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="40.8" customHeight="1" spans="1:19">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="1"/>
+      <c r="I33" s="21"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="1"/>
+      <c r="S33" s="21"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="51" customHeight="1" spans="1:19">
+      <c r="A34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="15"/>
+      <c r="I34" s="21"/>
+      <c r="K34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="15"/>
+      <c r="S34" s="21"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="18" customHeight="1" spans="1:19">
+      <c r="A35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="15"/>
+      <c r="I35" s="21"/>
+      <c r="K35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O35" s="21"/>
+      <c r="P35" s="15"/>
+      <c r="S35" s="21"/>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="14"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
+      <c r="A37" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
+      <c r="K37" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37" s="23"/>
+      <c r="N37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O37" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="19"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
+      <c r="A38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
+      <c r="K38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O38" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="19"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
+      <c r="A39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="19"/>
+      <c r="K39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="23"/>
+      <c r="N39" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="19"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:19">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="10"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="46.8" customHeight="1" spans="1:19">
+      <c r="A41" s="15"/>
+      <c r="B41" s="1"/>
+      <c r="I41" s="21"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="1"/>
+      <c r="S41" s="21"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="21" customHeight="1" spans="1:19">
+      <c r="A42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+      <c r="K42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="14"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="4" customHeight="1"/>
+    <row r="44" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="24"/>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="24"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:19">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="25"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="25"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:19">
+      <c r="A46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="10"/>
+      <c r="K46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="10"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="40.2" customHeight="1" spans="1:19">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="1"/>
+      <c r="I47" s="21"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="1"/>
+      <c r="S47" s="21"/>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="46.2" customHeight="1" spans="1:19">
+      <c r="A48" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="15"/>
+      <c r="I48" s="21"/>
+      <c r="K48" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="15"/>
+      <c r="S48" s="21"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:19">
+      <c r="A49" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="15"/>
+      <c r="I49" s="21"/>
+      <c r="K49" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O49" s="21"/>
+      <c r="P49" s="15"/>
+      <c r="S49" s="21"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="32.4" customHeight="1" spans="1:19">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="14"/>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
+      <c r="A51" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="19"/>
+      <c r="K51" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M51" s="23"/>
+      <c r="N51" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O51" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="19"/>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
+      <c r="A52" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="19"/>
+      <c r="K52" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52" s="19"/>
+      <c r="N52" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O52" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="19"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="30" customHeight="1" spans="1:19">
+      <c r="A53" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="19"/>
+      <c r="K53" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="23"/>
+      <c r="N53" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="19"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="12" customHeight="1" spans="1:19">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="10"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="10"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="38.4" customHeight="1" spans="1:19">
+      <c r="A55" s="15"/>
+      <c r="B55" s="1"/>
+      <c r="I55" s="21"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="1"/>
+      <c r="S55" s="21"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="21" customHeight="1" spans="1:19">
+      <c r="A56" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="14"/>
+      <c r="K56" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
+  <mergeCells count="137">
+    <mergeCell ref="A1:S1"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="L6:O6"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="K14:S14"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="K28:S28"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="O38:S38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="L41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="K42:S42"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="O52:S52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="O53:S53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="K54:S54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="L55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="K56:S56"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="A2:I3"/>
+    <mergeCell ref="K2:S3"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="L4:O5"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="Q5:R7"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="L7:O8"/>
+    <mergeCell ref="A16:I17"/>
+    <mergeCell ref="K16:S17"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="L18:O19"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="Q19:R21"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="L21:O22"/>
+    <mergeCell ref="A30:I31"/>
+    <mergeCell ref="K30:S31"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="L32:O33"/>
+    <mergeCell ref="G33:H35"/>
+    <mergeCell ref="Q33:R35"/>
+    <mergeCell ref="B35:E36"/>
+    <mergeCell ref="L35:O36"/>
+    <mergeCell ref="A44:I45"/>
+    <mergeCell ref="K44:S45"/>
+    <mergeCell ref="B46:E47"/>
+    <mergeCell ref="L46:O47"/>
+    <mergeCell ref="G47:H49"/>
+    <mergeCell ref="Q47:R49"/>
+    <mergeCell ref="B49:E50"/>
+    <mergeCell ref="L49:O50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
